--- a/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_191.xlsx
+++ b/hsim-experiment/harmonic_similarity_split_link/harmonic_similarity_matches_191.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,175 +488,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_110</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_198</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(1.44, 6.84)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(37.36, 44.66)]</t>
+          <t>[('0:01:56.700000', '0:01:59.480000')]</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:25.720000', '0:00:51.960000')]</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_171</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.1177257525083612</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_214</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5050505050505051</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(2.68, 6.46)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(42.88, 45.1)]</t>
+          <t>[('0:00:19.140000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>[('0:00:09.200000', '0:00:26.600000')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_50</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_142</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1334681496461072</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_53</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_172</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['F:min', 'C:7', 'F:min', 'F:min']]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(9.56, 25.14)]</t>
+          <t>[['C:maj', 'B:(3,5,b9)/C', 'C:maj', 'F#:(3,b5,b9)/C', 'B:maj/C', 'C:maj', 'B:(3,5,b7,b9)', 'C:maj']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(3.0, 7.38)]</t>
+          <t>[('0:02:32.440000', '0:02:37.160000')]</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>[('0:02:28.280000', '0:02:33.260000')]</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_208</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_163</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A:7', 'D:min', 'D:min'], ['D:maj/A', 'A:7', 'D:min'], ['D:min', 'A:7/E', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_182</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5333333333333333</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min'], ['F:maj/C', 'C:7', 'F:min/C'], ['F:min', 'C:7', 'F:min']]</t>
+          <t>[['F:maj', 'A#:maj', 'F:maj', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(14.16, 28.96), (56.78, 65.58), (1.92, 8.32)]</t>
+          <t>[['D:maj/A', 'G:maj', 'D:maj/A', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(32.32, 33.88), (32.04, 33.42), (7.7, 12.06)]</t>
+          <t>[('0:01:45', '0:01:48.540000')]</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:02:34.020000', '0:02:40.380000')]</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -659,137 +663,145 @@
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.06153846153846154</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
-        </is>
+          <t>schubert-winterreise_169</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_137</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>[['G:min', 'C:min', 'G:min', 'D:7', 'G:min', 'A#:maj/D', 'D#:maj', 'F:7', 'A#:maj', 'G:min/D', 'D:7', 'G:min', 'G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(99.6, 111.62), (46.52, 48.94)]</t>
+          <t>[['A:min', 'D:min', 'A:min', 'E:7', 'A:min', 'C:maj/E', 'F:maj', 'G:7', 'C:maj', 'A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(25.48, 32.76), (74.8, 81.06)]</t>
+          <t>[('0:00:14.520000', '0:00:59.040000')]</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:14.900000', '0:00:56.280000')]</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_295</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_101</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.4444444444444444</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['C/3', 'F', 'C/3', 'F']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['C#', 'F#/5', 'C#', 'F#/5']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(38.62, 44.06)]</t>
+          <t>[('0:01:16.585782', '0:01:18.536258')]</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:00:31.469410', '0:02:07.006105')]</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_28</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.3939393939393939</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min/C', 'F:min']]</t>
+          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(36.82, 38.82)]</t>
+          <t>[('0:00:15.300000', '0:00:19.720000')]</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:01:02.500000', '0:01:12.760000')]</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
@@ -798,133 +810,148 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_47</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_146</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.09779367918902802</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
-        </is>
+          <t>schubert-winterreise_165</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_26</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0.1348837209302326</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
+          <t>[['F:7', 'A#:min', 'A#:min']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(90.92, 100.48)]</t>
+          <t>[['C:7', 'F:min/C', 'F:min']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(38.62, 46.84)]</t>
+          <t>[('0:00:12.380000', '0:00:16.420000')]</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>[('0:00:36.280000', '0:00:38')]</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_188</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_20</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['F:min', 'C:7', 'F:min']]</t>
-        </is>
+          <t>schubert-winterreise_52</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_118</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.06976744186046512</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>[['A:7', 'D:min', 'D:min'], ['F:maj/C', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(9.26, 13.9)]</t>
+          <t>[['E:7', 'A:min', 'A:min'], ['C:maj/G', 'G:7', 'C:maj']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(39.04, 46.1)]</t>
+          <t>[('0:00:12.260000', '0:00:25.040000'), ('0:01:05.260000', '0:01:11.040000')]</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>[('0:00:14.200000', '0:00:18.800000'), ('0:00:31.740000', '0:00:33.880000')]</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_203</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_205</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
-        </is>
+          <t>isophonics_140</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_128</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.1064102564102564</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['B:7', 'A:min/C', 'D:7', 'G:maj', 'G:maj', 'E:min', 'A:min/C', 'D:7', 'G:maj', 'C:maj/G', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'A:min/C', 'D:7', 'G:maj', 'D:min/F', 'E:hdim7', 'D:min/F', 'E:(3,b5,b7)', 'D:min/F', 'D:min/F', 'G:7', 'C:min', 'D:(3,b5,b7)', 'C:min/D#', 'F:min/G#', 'G:hdim7', 'F:min/G#', 'G:(3,b5,b7)', 'F:min/G#', 'C:min/D#', 'G:min/D', 'D:7', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'G#:maj/C', 'G:min', 'A:(3,b5,b7)/G', 'G:min', 'D:7', 'G:min', 'G:maj', 'G:7/F', 'C:maj/E', 'G:maj/D', 'G:7/F', 'C:maj/E', 'G:maj/D', 'A:min7/C', 'D:7', 'G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B', 'C:min', 'G:min/A#', 'C:min', 'G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>[['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(6.04, 110.76)]</t>
+          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(5.0, 114.06)]</t>
+          <t>[('0:00:00.465952', '0:00:05.272756')]</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>[('0:00:18.320000', '0:00:25.820000')]</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
@@ -933,270 +960,242 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_165</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_164</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.1348837209302326</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['F:7', 'A#:min', 'A#:min']]</t>
-        </is>
+          <t>schubert-winterreise_203</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_0</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.06153846153846154</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'A:min']]</t>
+          <t>[['G:min/A#', 'C:min', 'G:min/A#'], ['G:min/D', 'D:7', 'G:min']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(12.38, 16.42)]</t>
+          <t>[['B:min', 'E:min/B', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(7.4, 18.24)]</t>
+          <t>[('0:01:27.680000', '0:01:38.020000'), ('0:00:43.180000', '0:00:45.100000')]</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:25.480000', '0:00:32.580000'), ('0:01:14.100000', '0:01:20.040000')]</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_205</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>isophonics_22</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.05207296849087894</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['G', 'C', 'E', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_47</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_6</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.09779367918902802</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['A/3', 'D', 'F#', 'B']]</t>
+          <t>[['F:maj/C', 'C:7', 'F:maj', 'D:min/A']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(44.448575, 52.798639)]</t>
+          <t>[['D:maj/F#', 'A:7', 'D:maj', 'B:min']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(45.772902, 52.634399)]</t>
+          <t>[('0:01:30.920000', '0:01:40.480000')]</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>spotify:track:389QX9Q1eUOEZ19vtzzI9O</t>
+          <t>[('0:00:37.540000', '0:00:45.380000')]</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:1h04XMpzGzmAudoI6VHBgA</t>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_108</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_19</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.2697674418604651</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['A:min/E', 'E:7', 'A:min', 'A:min/E', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_1</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_162</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7', 'D:min', 'D:min', 'A:7', 'D:min']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(32.7, 45.64)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.14, 30.18)]</t>
+          <t>[('0:00:07.020000', '0:00:24.780000')]</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>[('0:00:10.200000', '0:00:29.800000')]</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.1641025641025641</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:min', 'E:7', 'A:min']]</t>
-        </is>
+          <t>schubert-winterreise_57</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_202</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.7142857142857143</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['C:min/D#', 'G:min/D', 'D:7', 'G:min']]</t>
+          <t>[['A#:maj', 'F:(3,5,b7,b9)', 'A#:maj']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(16.72, 26.46)]</t>
+          <t>[['C#:maj/G#', 'G#:(3,5,b7,b9)', 'C#:maj']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(41.08, 43.34)]</t>
+          <t>[('0:00:23.160000', '0:00:26.040000')]</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>[('0:00:58.060000', '0:01:00.620000')]</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_152</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.07334525939177103</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>schubert-winterreise_88</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_86</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'A:7', 'D:maj']]</t>
+          <t>[['E:7', 'A:maj', 'A:maj', 'E:7/G#', 'C#:7', 'F#:min', 'A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(31.6, 33.8)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj', 'D:7/F#', 'B:7', 'E:min', 'G:maj/D', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(39.8, 45.4)]</t>
+          <t>[('0:00:05.780000', '0:00:21')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+          <t>[('0:00:05.880000', '0:00:21.160000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_173</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>schubert-winterreise_188</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2202898550724638</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['C:min/G', 'G:min', 'D:7', 'G:min']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(1.42, 5.02)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(7.8, 13.9)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
     </row>
